--- a/人物&地图-修订版(1).xlsx
+++ b/人物&地图-修订版(1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView minimized="1" xWindow="32860" yWindow="3460" windowWidth="28800" windowHeight="16560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,12 @@
     <sheet name="NPC" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -977,13 +987,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>323831</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1659712</xdr:rowOff>
+      <xdr:rowOff>1675587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1471594</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1681143</xdr:rowOff>
+      <xdr:rowOff>1697018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1006,7 +1016,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181956" y="2183587"/>
+          <a:off x="8070831" y="2199462"/>
           <a:ext cx="1147763" cy="1720056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6300,16 +6310,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
@@ -6424,7 +6434,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6454,7 +6464,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -6481,7 +6491,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -6511,7 +6521,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6541,7 +6551,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -6571,7 +6581,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -6598,7 +6608,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -6626,8 +6636,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
-        <v>12</v>
+      <c r="B14" s="6">
+        <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>158</v>
@@ -6654,8 +6664,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="11">
-        <v>13</v>
+      <c r="B15" s="6">
+        <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>160</v>
@@ -6683,8 +6693,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
-        <v>14</v>
+      <c r="B16" s="6">
+        <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>165</v>
@@ -6712,8 +6722,8 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="11">
-        <v>15</v>
+      <c r="B17" s="6">
+        <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>162</v>
@@ -6741,8 +6751,8 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="11">
-        <v>16</v>
+      <c r="B18" s="6">
+        <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>163</v>
@@ -6769,8 +6779,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11">
-        <v>17</v>
+      <c r="B19" s="6">
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>166</v>
@@ -6797,8 +6807,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11">
-        <v>18</v>
+      <c r="B20" s="6">
+        <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>161</v>
@@ -6825,8 +6835,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="13">
-        <v>19</v>
+      <c r="B21" s="6">
+        <v>18</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>44</v>
@@ -6855,8 +6865,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13">
-        <v>20</v>
+      <c r="B22" s="6">
+        <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>43</v>
@@ -6885,8 +6895,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="13">
-        <v>21</v>
+      <c r="B23" s="6">
+        <v>20</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>159</v>
@@ -6915,8 +6925,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="13">
-        <v>22</v>
+      <c r="B24" s="6">
+        <v>21</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>42</v>
@@ -6945,8 +6955,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13">
-        <v>23</v>
+      <c r="B25" s="6">
+        <v>22</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>135</v>
@@ -6975,8 +6985,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13">
-        <v>24</v>
+      <c r="B26" s="6">
+        <v>23</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>157</v>
@@ -7005,8 +7015,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="13">
-        <v>25</v>
+      <c r="B27" s="6">
+        <v>24</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>37</v>
@@ -7053,17 +7063,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7512,11 +7522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" zoomScalePageLayoutView="57" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -7657,13 +7667,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C168"/>
+  <dimension ref="B2:S247"/>
   <sheetViews>
-    <sheetView topLeftCell="H212" workbookViewId="0">
-      <selection activeCell="T171" sqref="T171"/>
+    <sheetView tabSelected="1" topLeftCell="H212" workbookViewId="0">
+      <selection activeCell="S248" sqref="S248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -7728,6 +7738,60 @@
     <row r="168" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C168" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="231" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S231">
+        <f>4695-768</f>
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="235" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S235">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="236" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S236">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="237" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S237">
+        <f>S236-S235</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="239" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S239">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="240" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S240">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="241" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S241">
+        <f>S240-S239</f>
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="243" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S243">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="246" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S246">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="247" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S247">
+        <f>S246-S243</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/人物&地图-修订版(1).xlsx
+++ b/人物&地图-修订版(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="32860" yWindow="3460" windowWidth="28800" windowHeight="16560" activeTab="3"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="28800" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="NPC" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="190">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6310,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6830,6 +6830,9 @@
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="5"/>
+      <c r="K20" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="L20" s="17" t="s">
         <v>146</v>
       </c>
@@ -6860,6 +6863,9 @@
         <v>47</v>
       </c>
       <c r="J21" s="5"/>
+      <c r="K21" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="L21" s="17" t="s">
         <v>132</v>
       </c>
@@ -6890,6 +6896,9 @@
         <v>48</v>
       </c>
       <c r="J22" s="5"/>
+      <c r="K22" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="L22" s="17" t="s">
         <v>129</v>
       </c>
@@ -6920,6 +6929,9 @@
         <v>48</v>
       </c>
       <c r="J23" s="5"/>
+      <c r="K23" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="L23" s="17" t="s">
         <v>130</v>
       </c>
@@ -6950,6 +6962,9 @@
         <v>46</v>
       </c>
       <c r="J24" s="5"/>
+      <c r="K24" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="L24" s="17" t="s">
         <v>131</v>
       </c>
@@ -6980,6 +6995,9 @@
         <v>48</v>
       </c>
       <c r="J25" s="5"/>
+      <c r="K25" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="L25" s="17" t="s">
         <v>133</v>
       </c>
@@ -7010,6 +7028,9 @@
         <v>48</v>
       </c>
       <c r="J26" s="19"/>
+      <c r="K26" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="L26" s="17" t="s">
         <v>145</v>
       </c>
@@ -7038,6 +7059,9 @@
       </c>
       <c r="I27" s="14" t="s">
         <v>38</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>126</v>
@@ -7669,7 +7693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H212" workbookViewId="0">
+    <sheetView topLeftCell="H212" workbookViewId="0">
       <selection activeCell="S248" sqref="S248"/>
     </sheetView>
   </sheetViews>
